--- a/KetoGator/Current Patients/TeSt2/DataBases/Data/TeSt2_Anthropometrics_Source.xlsx
+++ b/KetoGator/Current Patients/TeSt2/DataBases/Data/TeSt2_Anthropometrics_Source.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-11145" yWindow="9570" windowWidth="2400" windowHeight="585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Anthropometrics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Anthropometrics" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,10 +52,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,17 +401,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.2265625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13.08984375" customWidth="1" min="19" max="19"/>
-    <col width="12.1328125" customWidth="1" min="20" max="20"/>
+    <col width="12.5703125" customWidth="1" min="2" max="2"/>
+    <col width="13.140625" customWidth="1" min="19" max="19"/>
+    <col width="12.140625" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,8 +525,8 @@
       <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44006</v>
+      <c r="B2" s="3" t="n">
+        <v>36526</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -568,12 +570,14 @@
       <c r="P2" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>RP-6/24/2020</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>KK-6/24/2020</t>
         </is>
@@ -583,8 +587,8 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>44007</v>
+      <c r="B3" s="3" t="n">
+        <v>37745</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -628,12 +632,14 @@
       <c r="P3" t="n">
         <v>64.5</v>
       </c>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="Q3" s="4" t="n"/>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>RP-6/25/2020</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>KK-6/25/2020</t>
         </is>
@@ -643,8 +649,8 @@
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>44008</v>
+      <c r="B4" s="3" t="n">
+        <v>37349</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -667,9 +673,6 @@
       <c r="I4" t="n">
         <v>57</v>
       </c>
-      <c r="J4" t="n">
-        <v>23.5</v>
-      </c>
       <c r="K4" t="n">
         <v>16.5</v>
       </c>
@@ -688,12 +691,14 @@
       <c r="P4" t="n">
         <v>65.2</v>
       </c>
-      <c r="S4" s="2" t="inlineStr">
+      <c r="Q4" s="4" t="n"/>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>RP-6/26/2020</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>KK-6/26/2020</t>
         </is>
@@ -703,8 +708,8 @@
       <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>44009</v>
+      <c r="B5" s="3" t="n">
+        <v>36161</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -748,12 +753,14 @@
       <c r="P5" t="n">
         <v>64.3</v>
       </c>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="Q5" s="4" t="n"/>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>RP-6/27/2020</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>KK-6/27/2020</t>
         </is>
@@ -768,8 +775,8 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>44010</v>
+      <c r="B6" s="3" t="n">
+        <v>43893</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -813,12 +820,14 @@
       <c r="P6" t="n">
         <v>63.8</v>
       </c>
-      <c r="S6" s="2" t="inlineStr">
+      <c r="Q6" s="4" t="n"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>RP-6/28/2020</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>KK-6/28/2020</t>
         </is>
@@ -833,10 +842,8 @@
       <c r="A7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6/30/2020</t>
-        </is>
+      <c r="B7" s="3" t="n">
+        <v>44012</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -880,6 +887,8 @@
       <c r="P7" t="n">
         <v>1.1</v>
       </c>
+      <c r="Q7" s="4" t="n"/>
+      <c r="R7" s="4" t="n"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>RP-6/30/2020</t>
@@ -895,10 +904,8 @@
       <c r="A8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7/1/2020</t>
-        </is>
+      <c r="B8" s="3" t="n">
+        <v>44013</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -942,21 +949,82 @@
       <c r="P8" t="n">
         <v>1.1</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" s="4" t="n"/>
+      <c r="R8" s="4" t="n"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>RP-7/1/2020</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
           <t>hello</t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08/01/2020</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>RP-8/1/2020</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>